--- a/Week 16/Methods/Points/ScoredBaseline-2-2.xlsx
+++ b/Week 16/Methods/Points/ScoredBaseline-2-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lbeln\OneDrive\Documents\UF\Research\Week 16\Methods\Points\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B90D928-8EA2-4D4B-A5DC-8DC6B1AB7547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F4142B-9254-4804-BA0B-6DB40E5C1E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10935" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="11512" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -287,7 +287,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,6 +316,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -394,20 +400,21 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -715,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -947,7 +954,7 @@
       <c r="D8">
         <v>0.33333333333333343</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="8">
         <v>0.16666666666666671</v>
       </c>
       <c r="F8">
@@ -1034,7 +1041,7 @@
       <c r="D11">
         <v>0.27142857142857152</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="8">
         <v>0</v>
       </c>
       <c r="F11">
@@ -1095,7 +1102,7 @@
       <c r="F13">
         <v>0.1333333333333333</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="9">
         <v>0.70000000000000007</v>
       </c>
       <c r="H13">
@@ -1118,7 +1125,7 @@
       <c r="D14">
         <v>0.26250000000000001</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="7">
         <v>0.125</v>
       </c>
       <c r="F14">
@@ -1176,7 +1183,7 @@
       <c r="D16">
         <v>0.2233333333333333</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="8">
         <v>0</v>
       </c>
       <c r="F16">
@@ -1231,13 +1238,13 @@
       <c r="D18">
         <v>0.20222222222222219</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="7">
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="F18">
         <v>0.18888888888888891</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="7">
         <v>0.79999999999999971</v>
       </c>
       <c r="H18">
@@ -1269,7 +1276,7 @@
       <c r="G19">
         <v>0.45454545454545459</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="6">
         <v>0.90909090909090917</v>
       </c>
       <c r="I19">
@@ -1289,7 +1296,7 @@
       <c r="D20">
         <v>0.16</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="8">
         <v>0</v>
       </c>
       <c r="F20">
@@ -1353,7 +1360,7 @@
       <c r="F22">
         <v>0.37037037037037029</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="7">
         <v>0.88888888888888895</v>
       </c>
       <c r="H22">
@@ -1382,7 +1389,7 @@
       <c r="F23">
         <v>9.5238095238095233E-2</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="7">
         <v>1</v>
       </c>
       <c r="H23">
@@ -1411,7 +1418,7 @@
       <c r="F24">
         <v>0.375</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="7">
         <v>1</v>
       </c>
       <c r="H24">
@@ -1440,7 +1447,7 @@
       <c r="F25">
         <v>9.5238095238095233E-2</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="7">
         <v>1</v>
       </c>
       <c r="H25">
@@ -1469,7 +1476,7 @@
       <c r="F26">
         <v>0.1025641025641026</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="7">
         <v>0.84615384615384603</v>
       </c>
       <c r="H26">
@@ -1492,7 +1499,7 @@
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="7">
         <v>0.1</v>
       </c>
       <c r="F27">
